--- a/cmd/19.6月工作计划和会议纪要.xlsx
+++ b/cmd/19.6月工作计划和会议纪要.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>重要紧急****/重要不紧急***/不重要紧急**/不重要不紧急*</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>1、讨论建立三个公众号的可行性（技术教育、阅读类、财务教育）</t>
+  </si>
+  <si>
+    <t>2、重点的重点是内容资源，技术是为创作者服务的，内容是吸引创作者，当内容多到产生质变时，成功吸引到创作者时，第一个目标就达到了，那么就算迈过了成功的门槛</t>
   </si>
 </sst>
 </file>
@@ -153,9 +156,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -182,75 +185,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +222,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,15 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,25 +355,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,13 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,133 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,19 +560,19 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -586,6 +589,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,7 +627,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,23 +635,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1293,7 +1296,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1403,7 +1406,9 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1"/>

--- a/cmd/19.6月工作计划和会议纪要.xlsx
+++ b/cmd/19.6月工作计划和会议纪要.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作计划" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>重要紧急****/重要不紧急***/不重要紧急**/不重要不紧急*</t>
   </si>
@@ -148,6 +148,57 @@
   </si>
   <si>
     <t>2、重点的重点是内容资源，技术是为创作者服务的，内容是吸引创作者，当内容多到产生质变时，成功吸引到创作者时，第一个目标就达到了，那么就算迈过了成功的门槛</t>
+  </si>
+  <si>
+    <t>纪要</t>
+  </si>
+  <si>
+    <t>时间：2019.7.1</t>
+  </si>
+  <si>
+    <t>内容：</t>
+  </si>
+  <si>
+    <t>1、相关产品（读听写说）</t>
+  </si>
+  <si>
+    <t>logo 嘴 耳朵 手 眼睛</t>
+  </si>
+  <si>
+    <t>问题1</t>
+  </si>
+  <si>
+    <t>图片保存位置确定</t>
+  </si>
+  <si>
+    <t>问题2</t>
+  </si>
+  <si>
+    <t>文字大小调节</t>
+  </si>
+  <si>
+    <t>问题3</t>
+  </si>
+  <si>
+    <t>用户系统上线</t>
+  </si>
+  <si>
+    <t>问题4</t>
+  </si>
+  <si>
+    <t>留言系统</t>
+  </si>
+  <si>
+    <t>问题5</t>
+  </si>
+  <si>
+    <t>上一页下一页</t>
+  </si>
+  <si>
+    <t>问题6</t>
+  </si>
+  <si>
+    <t>查看页面去除头</t>
   </si>
 </sst>
 </file>
@@ -155,9 +206,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -192,6 +243,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -200,7 +258,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +273,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,68 +326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,24 +340,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +362,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -349,6 +400,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,175 +556,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,6 +609,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -572,8 +662,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,21 +692,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -622,39 +706,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -663,10 +714,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,133 +726,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1295,8 +1346,8 @@
   <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1411,19 +1462,29 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1"/>
@@ -1437,14 +1498,63 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
